--- a/Configs/售后单表格模板.xlsx
+++ b/Configs/售后单表格模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>店铺</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>售后申请时间</t>
+  </si>
+  <si>
+    <t>物流公司</t>
   </si>
   <si>
     <t>发货物流单号</t>
@@ -1288,10 +1291,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1303,13 +1306,13 @@
     <col min="5" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.3" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="42.2" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="19.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="42.2" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1337,8 +1340,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/Configs/售后单表格模板.xlsx
+++ b/Configs/售后单表格模板.xlsx
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>店铺</t>
+  </si>
+  <si>
+    <t>售后单</t>
   </si>
   <si>
     <t>订单号</t>
@@ -1291,32 +1294,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3" style="1" customWidth="1"/>
-    <col min="9" max="10" width="19.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="42.2" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3" style="1" customWidth="1"/>
+    <col min="10" max="11" width="19.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.2" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1340,54 +1344,71 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
